--- a/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
   <si>
     <t>土地坐落</t>
   </si>
@@ -158,6 +158,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>國泰金控</t>
   </si>
   <si>
@@ -168,6 +177,9 @@
   </si>
   <si>
     <t>聯華電子</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1013,13 +1025,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1038,13 +1050,22 @@
       <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1061,13 +1082,22 @@
       <c r="G2" s="2">
         <v>159860</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1084,13 +1114,22 @@
       <c r="G3" s="2">
         <v>3640</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1107,13 +1146,22 @@
       <c r="G4" s="2">
         <v>8120</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1129,6 +1177,15 @@
       </c>
       <c r="G5" s="2">
         <v>279030</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1722</v>
       </c>
     </row>
   </sheetData>
@@ -1146,22 +1203,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -1172,13 +1229,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
         <v>1089.68</v>
@@ -1187,7 +1244,7 @@
         <v>42715.46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2">
         <v>1257756</v>
@@ -1208,16 +1265,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1225,16 +1282,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1242,16 +1299,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1259,16 +1316,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1276,16 +1333,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1293,16 +1350,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1310,16 +1367,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1327,10 +1384,10 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1342,10 +1399,10 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1370,19 +1427,19 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1390,22 +1447,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
   <si>
     <t>土地坐落</t>
   </si>
@@ -158,6 +158,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
   </si>
   <si>
     <t>聯華電子</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-20</t>
@@ -1025,13 +1031,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1059,13 +1065,16 @@
       <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1083,21 +1092,24 @@
         <v>159860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1722</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1115,21 +1127,24 @@
         <v>3640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1722</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1147,21 +1162,24 @@
         <v>8120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1722</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1179,12 +1197,15 @@
         <v>279030</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1722</v>
       </c>
     </row>
@@ -1203,22 +1224,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -1229,13 +1250,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>1089.68</v>
@@ -1244,7 +1265,7 @@
         <v>42715.46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2">
         <v>1257756</v>
@@ -1265,16 +1286,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1282,16 +1303,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1299,16 +1320,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1316,16 +1337,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1333,16 +1354,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1350,16 +1371,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1367,16 +1388,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1384,10 +1405,10 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1399,10 +1420,10 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1427,19 +1448,19 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1447,22 +1468,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="95">
   <si>
     <t>土地坐落</t>
   </si>
@@ -161,6 +161,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -170,6 +173,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>國泰金控</t>
   </si>
   <si>
@@ -185,7 +194,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>tmp7091</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1031,13 +1046,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1068,13 +1083,22 @@
       <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1092,24 +1116,33 @@
         <v>159860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1722</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1127,24 +1160,33 @@
         <v>3640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1722</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1162,24 +1204,33 @@
         <v>8120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1722</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1197,16 +1248,25 @@
         <v>279030</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1722</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1224,22 +1284,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -1250,13 +1310,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>1089.68</v>
@@ -1265,7 +1325,7 @@
         <v>42715.46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2">
         <v>1257756</v>
@@ -1286,16 +1346,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1303,16 +1363,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,16 +1380,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1337,16 +1397,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1354,16 +1414,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1371,16 +1431,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1388,16 +1448,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1405,10 +1465,10 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1420,10 +1480,10 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1448,19 +1508,19 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1468,22 +1528,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
@@ -21,9 +21,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="95">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="99">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段三小段01220000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段二小段01000000地號</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>楊際英</t>
+  </si>
+  <si>
+    <t>97年05月30日</t>
+  </si>
+  <si>
+    <t>79年11月30日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>蔣乃辛</t>
+  </si>
+  <si>
+    <t>tmp7091</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,46 +128,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區金華段三小段 0122-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段二小段 0100-0000 地號</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>楊際英</t>
-  </si>
-  <si>
-    <t>97年05月 30日</t>
-  </si>
-  <si>
-    <t>79年11月 30日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段三小段 00322-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段二小段 00707-000 建號</t>
+    <t>臺北市大安區金華段三小段00322000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段二小段00707000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>97年07月 27日</t>
+    <t>97年07月27日</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -95,13 +149,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>豐田汽車-國瑞TOYOTA</t>
-  </si>
-  <si>
-    <t>蔣乃辛</t>
-  </si>
-  <si>
-    <t>99年02月 02日</t>
+    <t>豐田汽車國瑞TOYOTA</t>
+  </si>
+  <si>
+    <t>99年02月02日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -116,10 +167,10 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台北富邦商業銀行金華分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 北郵局青田支局</t>
+    <t>台北富邦商業銀行金華分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北郵局青田支局</t>
   </si>
   <si>
     <t>華南商業銀行信義分行</t>
@@ -128,7 +179,7 @@
     <t>臺灣中小企業銀行南京東</t>
   </si>
   <si>
-    <t>臺灣中小企業銀行忠孝分 行</t>
+    <t>臺灣中小企業銀行忠孝分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -140,12 +191,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -158,27 +203,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>國泰金控</t>
   </si>
   <si>
@@ -194,15 +218,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-20</t>
-  </si>
-  <si>
-    <t>tmp7091</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -221,9 +236,6 @@
     <t>富達全聚焦</t>
   </si>
   <si>
-    <t>台北富邦商業 銀行金華分行</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -299,13 +311,13 @@
     <t>暫付款</t>
   </si>
   <si>
-    <t>高美美 臺北市文山區羅斯福路</t>
+    <t>高美美臺北市文山區羅斯福路</t>
   </si>
   <si>
     <t>94年</t>
   </si>
   <si>
-    <t>借貸至今無 法收回</t>
+    <t>借貸至今無法收回</t>
   </si>
 </sst>
 </file>
@@ -664,13 +676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,56 +704,119 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2">
         <v>11299600</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>222</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1722</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
     </row>
@@ -760,25 +835,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -786,22 +861,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>103.56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2">
         <v>113700</v>
@@ -812,25 +887,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>149.92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -848,22 +923,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -871,19 +946,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2">
         <v>950000</v>
@@ -904,19 +979,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -924,16 +999,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>1913967</v>
@@ -944,16 +1019,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
         <v>39903</v>
@@ -964,16 +1039,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>430076</v>
@@ -984,16 +1059,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>2017134</v>
@@ -1004,16 +1079,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
         <v>258984</v>
@@ -1024,16 +1099,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
         <v>91047</v>
@@ -1054,43 +1129,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1098,10 +1173,10 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>15986</v>
@@ -1110,28 +1185,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2">
         <v>159860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>1722</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2">
         <v>58</v>
@@ -1142,10 +1217,10 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>364</v>
@@ -1154,28 +1229,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2">
         <v>3640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2">
         <v>1722</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2">
         <v>59</v>
@@ -1186,10 +1261,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>812</v>
@@ -1198,28 +1273,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2">
         <v>8120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2">
         <v>1722</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2">
         <v>60</v>
@@ -1230,10 +1305,10 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>27903</v>
@@ -1242,28 +1317,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2">
         <v>279030</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2">
         <v>1722</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N5" s="2">
         <v>61</v>
@@ -1284,25 +1359,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1310,13 +1385,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2">
         <v>1089.68</v>
@@ -1325,7 +1400,7 @@
         <v>42715.46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H2" s="2">
         <v>1257756</v>
@@ -1346,16 +1421,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1363,16 +1438,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1380,16 +1455,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1397,16 +1472,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1414,16 +1489,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1431,16 +1506,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1448,16 +1523,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1465,13 +1540,13 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1480,13 +1555,13 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -1505,22 +1580,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1528,22 +1603,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -71,15 +71,24 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區金華段三小段01220000地號</t>
+  </si>
+  <si>
     <t>臺北市大安區金華段二小段01000000地號</t>
   </si>
   <si>
+    <t>4分之1</t>
+  </si>
+  <si>
     <t>5分之1</t>
   </si>
   <si>
     <t>楊際英</t>
   </si>
   <si>
+    <t>97年05月30日</t>
+  </si>
+  <si>
     <t>79年11月30日</t>
   </si>
   <si>
@@ -107,15 +116,15 @@
     <t>臺北市大安區金華段三小段00322000建號</t>
   </si>
   <si>
+    <t>臺北市大安區金華段二小段00707000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
     <t>97年07月27日</t>
   </si>
   <si>
-    <t>臺北市大安區金華段二小段00707000建號</t>
-  </si>
-  <si>
     <t>豐田汽車國瑞TOYOTA</t>
   </si>
   <si>
@@ -153,6 +162,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>國泰金控</t>
   </si>
   <si>
     <t>開發金控</t>
@@ -583,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -641,54 +653,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="H2" s="2">
+        <v>11299600</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2">
         <v>1722</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>222</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2">
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1722</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>44.4</v>
       </c>
     </row>
@@ -698,6 +763,611 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>103.56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2">
+        <v>113700</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>103.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>149.92</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1722</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>149.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2362</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2">
+        <v>950000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1913967</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1913967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>39903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>430076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2017134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>258984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>91047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15986</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2">
+        <v>159860</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>364</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3640</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1722</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>812</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8120</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1722</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>27903</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2">
+        <v>279030</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1722</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -707,435 +1377,50 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1">
-        <v>103.56</v>
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1089.68</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42715.46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1">
-        <v>113700</v>
+        <v>1257756</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2">
-        <v>149.92</v>
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1089.68</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42715.46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2362</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>950000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1913967</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2">
-        <v>39903</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2">
-        <v>430076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2017134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2">
-        <v>258984</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2">
-        <v>91047</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
-        <v>364</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3640</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1722</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2">
-        <v>812</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8120</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1722</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>61</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>27903</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2">
-        <v>279030</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1722</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="2">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1089.68</v>
-      </c>
-      <c r="F1" s="1">
-        <v>42715.46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2">
         <v>1257756</v>
       </c>
     </row>
@@ -1146,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1154,132 +1439,149 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>91</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1288,30 +1590,53 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>97年07月27日</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>豐田汽車國瑞TOYOTA</t>
@@ -933,38 +936,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1">
-        <v>2362</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1">
-        <v>950000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -973,13 +997,34 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>950000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -997,13 +1042,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -1017,13 +1062,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1037,13 +1082,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1057,13 +1102,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1077,13 +1122,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1097,13 +1142,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1117,13 +1162,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1153,13 +1198,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1191,7 +1236,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1203,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>159860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1235,7 +1280,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1247,13 +1292,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2">
         <v>3640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1279,7 +1324,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1291,13 +1336,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2">
         <v>8120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1323,7 +1368,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1335,13 +1380,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2">
         <v>279030</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1377,13 +1422,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1">
         <v>1089.68</v>
@@ -1392,7 +1437,7 @@
         <v>42715.46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1">
         <v>1257756</v>
@@ -1403,13 +1448,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2">
         <v>1089.68</v>
@@ -1418,7 +1463,7 @@
         <v>42715.46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2">
         <v>1257756</v>
@@ -1439,16 +1484,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1456,16 +1501,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1473,16 +1518,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1490,16 +1535,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1507,16 +1552,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1524,16 +1569,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1541,16 +1586,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1558,10 +1603,10 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -1573,10 +1618,10 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -1598,22 +1643,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1621,22 +1666,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -125,6 +125,9 @@
     <t>97年07月27日</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
   </si>
   <si>
     <t>99年02月02日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台北富邦商業銀行金華分行</t>
@@ -849,7 +855,7 @@
         <v>113700</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>26</v>
@@ -902,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>26</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -988,7 +994,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -997,7 +1003,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
@@ -1006,7 +1012,7 @@
         <v>950000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1042,13 +1048,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -1062,13 +1068,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1082,13 +1088,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1102,13 +1108,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1122,13 +1128,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1142,13 +1148,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1162,13 +1168,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1198,13 +1204,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1236,7 +1242,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1248,13 +1254,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>159860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1280,7 +1286,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1292,13 +1298,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
         <v>3640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1324,7 +1330,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1336,13 +1342,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
         <v>8120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1368,7 +1374,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1380,13 +1386,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
         <v>279030</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1422,13 +1428,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1">
         <v>1089.68</v>
@@ -1437,7 +1443,7 @@
         <v>42715.46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1">
         <v>1257756</v>
@@ -1448,13 +1454,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2">
         <v>1089.68</v>
@@ -1463,7 +1469,7 @@
         <v>42715.46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
         <v>1257756</v>
@@ -1484,16 +1490,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1501,16 +1507,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1518,16 +1524,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1535,16 +1541,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1552,16 +1558,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1569,16 +1575,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1586,16 +1592,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1603,10 +1609,10 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -1618,10 +1624,10 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -1643,22 +1649,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1666,22 +1672,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -140,37 +140,46 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行金華分行</t>
   </si>
   <si>
+    <t>中華郵政股份有限公司台北郵局青田支局</t>
+  </si>
+  <si>
+    <t>華南商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行南京東</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行忠孝分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司台北郵局青田支局</t>
-  </si>
-  <si>
-    <t>華南商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行南京東</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行忠孝分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>國泰金控</t>
@@ -1040,13 +1049,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1057,24 +1066,45 @@
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1913967</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1082,19 +1112,40 @@
       <c r="F2" s="2">
         <v>1913967</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1102,19 +1153,40 @@
       <c r="F3" s="2">
         <v>39903</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1122,19 +1194,40 @@
       <c r="F4" s="2">
         <v>430076</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1142,19 +1235,40 @@
       <c r="F5" s="2">
         <v>2017134</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1162,25 +1276,67 @@
       <c r="F6" s="2">
         <v>258984</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>91047</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1204,13 +1360,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1242,7 +1398,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1254,13 +1410,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
         <v>159860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1286,7 +1442,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1298,13 +1454,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
         <v>3640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1330,7 +1486,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1342,13 +1498,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
         <v>8120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1374,7 +1530,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1386,13 +1542,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2">
         <v>279030</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1428,13 +1584,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1">
         <v>1089.68</v>
@@ -1443,7 +1599,7 @@
         <v>42715.46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1">
         <v>1257756</v>
@@ -1454,13 +1610,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2">
         <v>1089.68</v>
@@ -1469,7 +1625,7 @@
         <v>42715.46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2">
         <v>1257756</v>
@@ -1490,16 +1646,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1507,16 +1663,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1524,16 +1680,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1541,16 +1697,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1558,16 +1714,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1575,16 +1731,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1592,16 +1748,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1609,10 +1765,10 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -1624,10 +1780,10 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -1649,22 +1805,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1672,22 +1828,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -197,10 +197,16 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>富達全聚焦</t>
   </si>
   <si>
     <t>美金</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
   <si>
     <t>美國全民壽險公司</t>
@@ -1576,41 +1582,62 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1089.68</v>
-      </c>
-      <c r="F1" s="1">
-        <v>42715.46</v>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1257756</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1625,10 +1652,31 @@
         <v>42715.46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2">
         <v>1257756</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1646,16 +1694,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1663,16 +1711,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1680,16 +1728,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1697,16 +1745,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1714,16 +1762,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1731,16 +1779,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1748,16 +1796,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1765,10 +1813,10 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -1780,10 +1828,10 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -1805,22 +1853,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1828,22 +1876,22 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2012-04-20_財產申報表_tmp7091.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -209,21 +209,21 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>美國全民壽險公司</t>
   </si>
   <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>20年期養老儲蓄險</t>
   </si>
   <si>
-    <t>#7202627348</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>儲蓄型壽險</t>
   </si>
   <si>
@@ -236,19 +236,13 @@
     <t>還本型終身壽險</t>
   </si>
   <si>
-    <t>#7202627347</t>
-  </si>
-  <si>
-    <t>#5280080057</t>
-  </si>
-  <si>
-    <t>#5301103621</t>
-  </si>
-  <si>
-    <t>#7254585768</t>
-  </si>
-  <si>
-    <t>#9002864336</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>暫付款</t>
@@ -261,6 +255,9 @@
   </si>
   <si>
     <t>借貸至今無法收回</t>
+  </si>
+  <si>
+    <t>claim</t>
   </si>
 </sst>
 </file>
@@ -1686,52 +1683,88 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -1739,13 +1772,31 @@
       <c r="E3" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>67</v>
@@ -1754,15 +1805,33 @@
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>67</v>
@@ -1771,15 +1840,33 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>68</v>
@@ -1788,15 +1875,33 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>68</v>
@@ -1805,15 +1910,33 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>69</v>
@@ -1821,14 +1944,34 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>70</v>
@@ -1836,7 +1979,27 @@
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1845,53 +2008,95 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1">
-        <v>500000</v>
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>79</v>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
